--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>279496.1823597062</v>
+        <v>277608.6008433047</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>254583.4925051286</v>
+        <v>498049.5300959365</v>
       </c>
     </row>
     <row r="8">
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>235.7784162093676</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>40.4405198387111</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>174.9442930587124</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>317.1659952951775</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>361.2308869585275</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>134.6751203255735</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>239.571158074325</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>341.8501615764299</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>238.4631285907687</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>155.886038567534</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>166.5670961475969</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>134.7426179953489</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498023</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>122.6968273446468</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>278.6303162323348</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>148.9331594064107</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.5523789653005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>30.5631973157887</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>10.72595656484984</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>22.8484487278698</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,19 +2527,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>166.1848299532898</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="27">
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2767,13 +2767,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>163.5678331858566</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>228.6494705232566</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>70.97844236227812</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801206</v>
+        <v>91.23070601801204</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437413</v>
+        <v>0.02976576477712791</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897901</v>
+        <v>93.710571738979</v>
       </c>
       <c r="I31" t="n">
         <v>55.21598883571487</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523567</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550461</v>
@@ -3004,7 +3004,7 @@
         <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
         <v>196.9343866952709</v>
@@ -3016,7 +3016,7 @@
         <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3044,10 +3044,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463133</v>
@@ -3253,7 +3253,7 @@
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224543</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463133</v>
@@ -3518,10 +3518,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463139</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415219</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1175.00952757579</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C2" t="n">
-        <v>806.0470106353782</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D2" t="n">
-        <v>806.0470106353782</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2282.811586959294</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1951.748699615723</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>1951.748699615723</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>1951.748699615723</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y2" t="n">
-        <v>1561.609367639912</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>290.5651556036578</v>
+        <v>2338.78921905797</v>
       </c>
       <c r="C4" t="n">
-        <v>249.7161456655658</v>
+        <v>2169.853036130063</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>2169.853036130063</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>2169.853036130063</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406185</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406185</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W4" t="n">
-        <v>290.5651556036578</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X4" t="n">
-        <v>290.5651556036578</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y4" t="n">
-        <v>290.5651556036578</v>
+        <v>2520.43768388821</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2423.485734520778</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="C5" t="n">
-        <v>2054.523217580367</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="D5" t="n">
-        <v>1696.257518973616</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E5" t="n">
-        <v>1310.469266375372</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>899.4833615857644</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>2423.485734520778</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X5" t="n">
-        <v>2423.485734520778</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y5" t="n">
-        <v>2423.485734520778</v>
+        <v>1916.245359491378</v>
       </c>
     </row>
     <row r="6">
@@ -4647,13 +4647,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>562.6765899837193</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="C7" t="n">
-        <v>562.6765899837193</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="D7" t="n">
-        <v>562.6765899837193</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="E7" t="n">
-        <v>562.6765899837193</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>562.6765899837193</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>562.6765899837193</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>562.6765899837193</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>562.6765899837193</v>
+        <v>456.7209962981119</v>
       </c>
       <c r="V7" t="n">
-        <v>562.6765899837193</v>
+        <v>456.7209962981119</v>
       </c>
       <c r="W7" t="n">
-        <v>562.6765899837193</v>
+        <v>456.7209962981119</v>
       </c>
       <c r="X7" t="n">
-        <v>562.6765899837193</v>
+        <v>456.7209962981119</v>
       </c>
       <c r="Y7" t="n">
-        <v>562.6765899837193</v>
+        <v>235.9284171545818</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1718.448825665084</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C8" t="n">
-        <v>1349.486308724672</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D8" t="n">
-        <v>1349.486308724672</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>963.6980561264277</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>552.7121513368202</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2478.514423990285</v>
+        <v>2401.248554487333</v>
       </c>
       <c r="W8" t="n">
-        <v>2478.514423990285</v>
+        <v>2401.248554487333</v>
       </c>
       <c r="X8" t="n">
-        <v>2105.048665729205</v>
+        <v>2027.782796226253</v>
       </c>
       <c r="Y8" t="n">
-        <v>2105.048665729205</v>
+        <v>1637.643464250441</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.4036268380756</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>211.4036268380756</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>211.4036268380756</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>211.4036268380756</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>211.4036268380756</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="T10" t="n">
-        <v>500.8207968750362</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="U10" t="n">
-        <v>500.8207968750362</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="V10" t="n">
-        <v>500.8207968750362</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="W10" t="n">
-        <v>211.4036268380756</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X10" t="n">
-        <v>211.4036268380756</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.4036268380756</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5063,28 +5063,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181232</v>
+        <v>324.9827011157383</v>
       </c>
       <c r="L12" t="n">
-        <v>811.5008739770942</v>
+        <v>554.9458069840874</v>
       </c>
       <c r="M12" t="n">
-        <v>1131.836193506796</v>
+        <v>875.2811265137892</v>
       </c>
       <c r="N12" t="n">
-        <v>1476.356849144414</v>
+        <v>1679.69270477794</v>
       </c>
       <c r="O12" t="n">
-        <v>2145.820610447073</v>
+        <v>2349.156466080599</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>376.9270045185177</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C13" t="n">
-        <v>376.9270045185177</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,7 +5203,7 @@
         <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471192</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1330.666678489623</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1330.666678489623</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1330.666678489623</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1075.982190283736</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>786.5650202467748</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X13" t="n">
-        <v>558.5754693487575</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y13" t="n">
-        <v>558.5754693487575</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.09316900344</v>
@@ -5264,22 +5264,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,37 +5288,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5331,16 +5331,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
         <v>358.2718071316295</v>
@@ -5352,16 +5352,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>320.0392246405347</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L15" t="n">
-        <v>550.0023305088838</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M15" t="n">
         <v>1318.370476901345</v>
@@ -5391,7 +5391,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W15" t="n">
         <v>1571.258395043133</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>581.2185435662825</v>
+        <v>675.7175987609742</v>
       </c>
       <c r="C16" t="n">
-        <v>412.2823606383756</v>
+        <v>506.7814158330673</v>
       </c>
       <c r="D16" t="n">
-        <v>412.2823606383756</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404653</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1374.980081320885</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473454</v>
+        <v>1151.194666110391</v>
       </c>
       <c r="U16" t="n">
-        <v>1017.551496602409</v>
+        <v>1151.194666110391</v>
       </c>
       <c r="V16" t="n">
-        <v>762.8670083965222</v>
+        <v>896.5101779045043</v>
       </c>
       <c r="W16" t="n">
-        <v>762.8670083965222</v>
+        <v>896.5101779045043</v>
       </c>
       <c r="X16" t="n">
-        <v>762.8670083965222</v>
+        <v>896.5101779045043</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.8670083965222</v>
+        <v>675.7175987609742</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5510,34 +5510,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>243.8806239863486</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L18" t="n">
-        <v>473.8437298546977</v>
+        <v>658.5774644300484</v>
       </c>
       <c r="M18" t="n">
-        <v>794.1790493843995</v>
+        <v>1426.94561082251</v>
       </c>
       <c r="N18" t="n">
-        <v>1138.699705022017</v>
+        <v>1771.466266460128</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>413.3055067228584</v>
+        <v>265.3924131404651</v>
       </c>
       <c r="C19" t="n">
-        <v>413.3055067228584</v>
+        <v>265.3924131404651</v>
       </c>
       <c r="D19" t="n">
-        <v>413.3055067228584</v>
+        <v>265.3924131404651</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404653</v>
+        <v>265.3924131404651</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404653</v>
+        <v>265.3924131404651</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>1037.48362228133</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557903</v>
+        <v>1037.48362228133</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352016</v>
+        <v>782.7991340754431</v>
       </c>
       <c r="W19" t="n">
-        <v>954.8146123150556</v>
+        <v>493.3819640384825</v>
       </c>
       <c r="X19" t="n">
-        <v>726.8250614170382</v>
+        <v>265.3924131404651</v>
       </c>
       <c r="Y19" t="n">
-        <v>594.9539715530981</v>
+        <v>265.3924131404651</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,46 +5735,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>222.0041442267594</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>347.3617042845968</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3248101529459</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M21" t="n">
-        <v>897.6601296826477</v>
+        <v>1604.839867667473</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.071707946799</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O21" t="n">
-        <v>2371.535469249458</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>562.7003690904323</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="C22" t="n">
-        <v>562.7003690904323</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="D22" t="n">
-        <v>562.7003690904323</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="E22" t="n">
-        <v>562.7003690904323</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F22" t="n">
-        <v>415.810421592522</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.2170914602859</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687013</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V22" t="n">
-        <v>755.1831334811264</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W22" t="n">
-        <v>744.3488339206721</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X22" t="n">
-        <v>744.3488339206721</v>
+        <v>757.7241344124302</v>
       </c>
       <c r="Y22" t="n">
-        <v>744.3488339206721</v>
+        <v>536.9315552689001</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514095</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,40 +5999,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6054,34 +6054,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028589</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>395.9961833785277</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>1009.893253135416</v>
+        <v>674.428562457161</v>
       </c>
       <c r="M24" t="n">
-        <v>1778.261399527878</v>
+        <v>674.428562457161</v>
       </c>
       <c r="N24" t="n">
-        <v>2122.782055165496</v>
+        <v>1364.414563824402</v>
       </c>
       <c r="O24" t="n">
-        <v>2371.535469249458</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P24" t="n">
         <v>2554.178946862809</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>716.8555221680803</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>547.9193392401734</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>524.8400981009108</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241958</v>
@@ -6154,7 +6154,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6172,25 +6172,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.921157035281</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.921157035281</v>
+        <v>964.1357418247862</v>
       </c>
       <c r="U25" t="n">
-        <v>1187.921157035281</v>
+        <v>964.1357418247862</v>
       </c>
       <c r="V25" t="n">
-        <v>1187.921157035281</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W25" t="n">
-        <v>898.50398699832</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X25" t="n">
-        <v>898.50398699832</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y25" t="n">
-        <v>898.50398699832</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,19 +6209,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
@@ -6230,7 +6230,7 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6269,7 +6269,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6303,22 +6303,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>222.5746515181232</v>
+        <v>636.176123741435</v>
       </c>
       <c r="L27" t="n">
-        <v>836.4717212750119</v>
+        <v>1250.073193498324</v>
       </c>
       <c r="M27" t="n">
-        <v>1604.839867667473</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N27" t="n">
-        <v>1949.360523305091</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O27" t="n">
-        <v>2440.930027762787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>265.3924131404652</v>
+        <v>731.3351829786181</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404652</v>
+        <v>562.3990000507113</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>412.2823606383755</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>412.2823606383755</v>
       </c>
       <c r="F28" t="n">
         <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>898.7925182488382</v>
+        <v>1133.776226952388</v>
       </c>
       <c r="V28" t="n">
-        <v>898.7925182488382</v>
+        <v>1133.776226952388</v>
       </c>
       <c r="W28" t="n">
-        <v>667.833457114235</v>
+        <v>1133.776226952388</v>
       </c>
       <c r="X28" t="n">
-        <v>667.833457114235</v>
+        <v>1133.776226952388</v>
       </c>
       <c r="Y28" t="n">
-        <v>447.0408779707049</v>
+        <v>912.9836478088578</v>
       </c>
     </row>
     <row r="29">
@@ -6461,7 +6461,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6506,7 +6506,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6546,16 +6546,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1106.610291292808</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>1426.94561082251</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N30" t="n">
-        <v>1771.466266460128</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>2440.930027762787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
         <v>2623.573505376138</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>728.214441616093</v>
+        <v>565.4200295030882</v>
       </c>
       <c r="C31" t="n">
-        <v>615.0391239695572</v>
+        <v>452.2447118565518</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440237</v>
+        <v>452.2447118565518</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430015</v>
+        <v>360.0924835555296</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264619</v>
+        <v>360.0624171264618</v>
       </c>
       <c r="G31" t="n">
         <v>247.6479607276534</v>
@@ -6619,7 +6619,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
         <v>369.0876362933502</v>
@@ -6628,10 +6628,10 @@
         <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962053</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
@@ -6643,28 +6643,28 @@
         <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056075</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252998</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323874</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1623.942368323874</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1425.018745399358</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>1191.362440643768</v>
+        <v>902.6804289818939</v>
       </c>
       <c r="X31" t="n">
-        <v>1019.133755027121</v>
+        <v>730.4517433652475</v>
       </c>
       <c r="Y31" t="n">
-        <v>854.102041164962</v>
+        <v>565.4200295030882</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6686,16 +6686,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
@@ -6713,16 +6713,16 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,25 +6774,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.32563221405</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M33" t="n">
-        <v>1847.655958041207</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N33" t="n">
-        <v>2192.176613678825</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2440.930027762787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
         <v>2623.573505376138</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
         <v>478.0475988506726</v>
@@ -6844,7 +6844,7 @@
         <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,7 +6853,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6911,61 +6911,61 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7002,37 +7002,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>1003.751888060526</v>
       </c>
       <c r="M36" t="n">
-        <v>2056.693778606511</v>
+        <v>1003.751888060526</v>
       </c>
       <c r="N36" t="n">
-        <v>2623.573505376138</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="O36" t="n">
-        <v>2623.573505376138</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254961</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
@@ -7114,31 +7114,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010313</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,40 +7184,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,16 +7251,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M39" t="n">
-        <v>2056.693778606511</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N39" t="n">
         <v>2623.573505376138</v>
@@ -7315,28 +7315,28 @@
         <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,7 +7363,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
         <v>1304.027639859417</v>
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108338</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229679</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384655</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="44">
@@ -7625,34 +7625,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7673,22 +7673,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,16 +7801,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254953</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649689</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8784,7 +8784,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298479</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>84.1373490920362</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9495,10 +9495,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,10 +9720,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9969,7 +9969,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10203,10 +10203,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10361,7 +10361,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10440,10 +10440,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10671,7 +10671,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10680,10 +10680,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>31.35371383600631</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>90.96703739368829</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>75.2239826389564</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>7.607036166242508</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>72.61440165197854</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>88.03227438679428</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>149.2687828661486</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,25 +24175,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>275.7970417717412</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>125.7670242903426</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,19 +24415,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>85.95281337053817</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.913828367536</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>122.6695192127207</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>57.87352781333436</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>22.43377402737713</v>
+        <v>93.41221638965523</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.18802562959699</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523568</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307890.663699106</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="C2" t="n">
+        <v>307890.6636991064</v>
+      </c>
+      <c r="D2" t="n">
         <v>307890.6636991063</v>
       </c>
-      <c r="D2" t="n">
-        <v>307890.6636991061</v>
-      </c>
       <c r="E2" t="n">
+        <v>293271.7948032815</v>
+      </c>
+      <c r="F2" t="n">
         <v>293271.7948032814</v>
-      </c>
-      <c r="F2" t="n">
-        <v>293271.7948032813</v>
       </c>
       <c r="G2" t="n">
         <v>293271.7948032815</v>
       </c>
       <c r="H2" t="n">
-        <v>293271.7948032815</v>
+        <v>293271.7948032814</v>
       </c>
       <c r="I2" t="n">
         <v>293271.7948032814</v>
@@ -26344,13 +26344,13 @@
         <v>307890.6636991062</v>
       </c>
       <c r="M2" t="n">
+        <v>307890.6636991062</v>
+      </c>
+      <c r="N2" t="n">
         <v>307890.6636991061</v>
       </c>
-      <c r="N2" t="n">
-        <v>307890.6636991063</v>
-      </c>
       <c r="O2" t="n">
-        <v>307890.6636991062</v>
+        <v>307890.6636991061</v>
       </c>
       <c r="P2" t="n">
         <v>307890.6636991061</v>
@@ -26372,40 +26372,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.651701151989983e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925926</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284569</v>
+        <v>44162.60530284564</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086684</v>
+        <v>10342.90680086683</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
-        <v>1.670698566158535e-10</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.6053028457</v>
+        <v>44162.60530284568</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905758286</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905758901</v>
+      </c>
+      <c r="H4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="F4" t="n">
-        <v>787.7936905758115</v>
-      </c>
-      <c r="G4" t="n">
-        <v>787.7936905758063</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758063</v>
-      </c>
       <c r="I4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758902</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477244</v>
+        <v>18952.41620477243</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="M4" t="n">
+        <v>23206.58093189641</v>
+      </c>
+      <c r="N4" t="n">
+        <v>23206.58093189635</v>
+      </c>
+      <c r="O4" t="n">
+        <v>23206.58093189633</v>
+      </c>
+      <c r="P4" t="n">
         <v>23206.58093189634</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23206.58093189631</v>
-      </c>
-      <c r="O4" t="n">
-        <v>23206.58093189635</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23206.58093189636</v>
       </c>
     </row>
     <row r="5">
@@ -26476,37 +26476,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871667</v>
-      </c>
       <c r="I5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="N5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-503995.432759467</v>
+        <v>-503995.4327594668</v>
       </c>
       <c r="C6" t="n">
-        <v>85972.44645507779</v>
+        <v>85972.44645507788</v>
       </c>
       <c r="D6" t="n">
-        <v>85972.44645507765</v>
+        <v>85972.44645507776</v>
       </c>
       <c r="E6" t="n">
-        <v>-324663.3613129071</v>
+        <v>-324760.8204388794</v>
       </c>
       <c r="F6" t="n">
-        <v>200496.6751639887</v>
+        <v>200399.2160380168</v>
       </c>
       <c r="G6" t="n">
-        <v>200496.6751639887</v>
+        <v>200399.2160380168</v>
       </c>
       <c r="H6" t="n">
-        <v>200496.6751639891</v>
+        <v>200399.2160380168</v>
       </c>
       <c r="I6" t="n">
-        <v>200496.6751639889</v>
+        <v>200399.2160380166</v>
       </c>
       <c r="J6" t="n">
-        <v>24073.45597139631</v>
+        <v>23975.99684542388</v>
       </c>
       <c r="K6" t="n">
-        <v>145373.3729711114</v>
+        <v>145354.8792331771</v>
       </c>
       <c r="L6" t="n">
-        <v>176626.0701463177</v>
+        <v>176626.0701463176</v>
       </c>
       <c r="M6" t="n">
-        <v>52167.96171334725</v>
+        <v>52167.96171334732</v>
       </c>
       <c r="N6" t="n">
         <v>186968.9769471843</v>
       </c>
       <c r="O6" t="n">
-        <v>186968.9769471845</v>
+        <v>186968.9769471844</v>
       </c>
       <c r="P6" t="n">
-        <v>142806.3716443387</v>
+        <v>142806.3716443388</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964061</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964065</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26738,22 +26738,22 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="F3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541004</v>
@@ -26762,22 +26762,22 @@
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26799,16 +26799,16 @@
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108355</v>
+        <v>12.92863350108354</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.2032566285571</v>
       </c>
     </row>
     <row r="3">
@@ -26966,19 +26966,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,34 +27018,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>540.9263704990173</v>
+      </c>
+      <c r="N4" t="n">
         <v>4.547473508864641e-13</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.287272754555</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>540.9263704990175</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6.821210263296962e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27427,22 +27427,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>15.44575129892166</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>126.8063012599167</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>43.64036029338243</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27616,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>37.51704632550548</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>52.55328306226744</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,7 +27673,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27786,10 +27786,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>11.99007165458437</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>46.71071616765272</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>71.93400844436508</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>89.28912987936616</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>11.42376369151691</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>152.4187013741504</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-1.27897692436818e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-6.189723643776018e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="27">
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="32">
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31127,7 +31127,7 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31136,10 +31136,10 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>86.4344768999344</v>
       </c>
       <c r="N3" t="n">
-        <v>167.900586832999</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,19 +31355,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>11.76595806653259</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31613,28 +31613,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>167.900586832999</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,37 +31838,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>103.4424743410252</v>
       </c>
       <c r="L12" t="n">
-        <v>362.5890066571937</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32078,16 +32078,16 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>98.44906376001148</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>163.1953899965976</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -32102,10 +32102,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,37 +32236,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>21.52118431133866</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>208.1209162056323</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>4.797192695340925</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -32576,10 +32576,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,25 +32786,25 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>175.173264505459</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>348.9548946763871</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -33023,22 +33023,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>249.7780505767166</v>
       </c>
       <c r="L27" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>245.2687781552866</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,22 +33260,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>204.2612353205031</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>212.6272478467031</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -33287,10 +33287,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,19 +33497,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>216.4869287318326</v>
       </c>
       <c r="L33" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>241.4090972701574</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33524,10 +33524,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,16 +33664,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,37 +33734,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>100.3638583181985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,19 +33971,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>216.4869287318326</v>
       </c>
       <c r="L39" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -33998,10 +33998,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,7 +34217,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
         <v>224.6051223555648</v>
@@ -34232,13 +34232,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,25 +34357,25 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,7 +34454,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
         <v>224.6051223555648</v>
@@ -34469,13 +34469,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,10 +34784,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>230.0662723792449</v>
       </c>
       <c r="L12" t="n">
-        <v>594.8749721807787</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970350042</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>225.0728617982311</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>486.7664198245791</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
         <v>251.2660748322851</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>148.1449823495583</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>440.4068817292173</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0475280469429</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>352.7978549555611</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>301.7970625436786</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>696.9555569366073</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>376.4018486149362</v>
       </c>
       <c r="L27" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>496.5348529875717</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
@@ -36765,10 +36765,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
         <v>39.22569997187475</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,19 +36914,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>436.5472008440881</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>536.1982776746847</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412263</v>
+        <v>67.71102679412265</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584677</v>
@@ -36996,7 +36996,7 @@
         <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
         <v>328.4801344341607</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043186</v>
+        <v>94.42895660043187</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,19 +37069,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P32" t="n">
         <v>570.6060255109123</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>343.1107267700522</v>
       </c>
       <c r="L33" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>564.980127098139</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,19 +37306,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,22 +37388,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>332.6498238417835</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>343.1107267700522</v>
       </c>
       <c r="L39" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,7 +37865,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
         <v>572.6057846157851</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520613</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M43" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414413</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,7 +38102,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
         <v>572.6057846157851</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
